--- a/data/pca/factorExposure/factorExposure_2015-12-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01690410668439967</v>
+        <v>0.01674298193019705</v>
       </c>
       <c r="C2">
-        <v>0.03348001229858086</v>
+        <v>0.0345214245316845</v>
       </c>
       <c r="D2">
-        <v>0.09477557377253176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1215609100198693</v>
+      </c>
+      <c r="E2">
+        <v>0.06618431774454595</v>
+      </c>
+      <c r="F2">
+        <v>-0.02286552278020454</v>
+      </c>
+      <c r="G2">
+        <v>0.073093040078588</v>
+      </c>
+      <c r="H2">
+        <v>-0.08434334424101969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01742790955409703</v>
+        <v>0.01006312160542346</v>
       </c>
       <c r="C3">
-        <v>0.05269423097934764</v>
+        <v>0.03508854312977581</v>
       </c>
       <c r="D3">
-        <v>0.1302690368104119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07707148922077726</v>
+      </c>
+      <c r="E3">
+        <v>0.05627205402717081</v>
+      </c>
+      <c r="F3">
+        <v>-0.03291654529303899</v>
+      </c>
+      <c r="G3">
+        <v>0.08284461373554093</v>
+      </c>
+      <c r="H3">
+        <v>-0.04079553453254125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04935891216169358</v>
+        <v>0.05443946981970949</v>
       </c>
       <c r="C4">
-        <v>0.0366492852230194</v>
+        <v>0.06351749076206048</v>
       </c>
       <c r="D4">
-        <v>0.1261192644029803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.141597268976534</v>
+      </c>
+      <c r="E4">
+        <v>0.05143119924045871</v>
+      </c>
+      <c r="F4">
+        <v>-0.02162668140313446</v>
+      </c>
+      <c r="G4">
+        <v>-0.02627519374157733</v>
+      </c>
+      <c r="H4">
+        <v>0.03695626325387304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04269472230487766</v>
+        <v>0.03985941529013538</v>
       </c>
       <c r="C6">
-        <v>0.005945558467076739</v>
+        <v>0.0260995203181407</v>
       </c>
       <c r="D6">
-        <v>0.134785591767198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1325616490773285</v>
+      </c>
+      <c r="E6">
+        <v>0.02934546945560283</v>
+      </c>
+      <c r="F6">
+        <v>-0.0151307941633188</v>
+      </c>
+      <c r="G6">
+        <v>0.01653684675466581</v>
+      </c>
+      <c r="H6">
+        <v>-0.007441399445458612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02196386645188785</v>
+        <v>0.01537709846317974</v>
       </c>
       <c r="C7">
-        <v>0.01499622361554426</v>
+        <v>0.02988608743052861</v>
       </c>
       <c r="D7">
-        <v>0.09486748800322123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09429034173475206</v>
+      </c>
+      <c r="E7">
+        <v>0.03065683053223449</v>
+      </c>
+      <c r="F7">
+        <v>-0.01768262380917082</v>
+      </c>
+      <c r="G7">
+        <v>-0.01172921259278498</v>
+      </c>
+      <c r="H7">
+        <v>-0.1024871106024079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007987155123012757</v>
+        <v>0.00635091139804765</v>
       </c>
       <c r="C8">
-        <v>0.02882259911210082</v>
+        <v>0.03810057223386113</v>
       </c>
       <c r="D8">
-        <v>0.05634282821040059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07392230555767659</v>
+      </c>
+      <c r="E8">
+        <v>0.03609295810521422</v>
+      </c>
+      <c r="F8">
+        <v>-0.04114452798929441</v>
+      </c>
+      <c r="G8">
+        <v>0.01160967526178955</v>
+      </c>
+      <c r="H8">
+        <v>-0.04222852673998806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04210150465149714</v>
+        <v>0.0428630974430467</v>
       </c>
       <c r="C9">
-        <v>0.03623852965541507</v>
+        <v>0.05858955863914797</v>
       </c>
       <c r="D9">
-        <v>0.1122298553197947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1203055962685985</v>
+      </c>
+      <c r="E9">
+        <v>0.03599168382530048</v>
+      </c>
+      <c r="F9">
+        <v>-0.00319052370863924</v>
+      </c>
+      <c r="G9">
+        <v>-0.02172968165472656</v>
+      </c>
+      <c r="H9">
+        <v>0.001107688583370646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09270013197951546</v>
+        <v>0.1354925917510983</v>
       </c>
       <c r="C10">
-        <v>-0.1968003371986745</v>
+        <v>-0.1897317697254996</v>
       </c>
       <c r="D10">
-        <v>0.001541313422296559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0006911990310318102</v>
+      </c>
+      <c r="E10">
+        <v>0.04693993475345475</v>
+      </c>
+      <c r="F10">
+        <v>-0.02130763207429435</v>
+      </c>
+      <c r="G10">
+        <v>-0.03914035563167111</v>
+      </c>
+      <c r="H10">
+        <v>0.0006794569523933809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03414123841549592</v>
+        <v>0.02858383589650029</v>
       </c>
       <c r="C11">
-        <v>0.03860836944087761</v>
+        <v>0.04319861862192741</v>
       </c>
       <c r="D11">
-        <v>0.05909926771755866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05749063094111525</v>
+      </c>
+      <c r="E11">
+        <v>-0.004550550861091117</v>
+      </c>
+      <c r="F11">
+        <v>-0.001924742416968542</v>
+      </c>
+      <c r="G11">
+        <v>-0.002901166103415542</v>
+      </c>
+      <c r="H11">
+        <v>-0.04564845818897745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03958832445525592</v>
+        <v>0.03413163178997576</v>
       </c>
       <c r="C12">
-        <v>0.04077658388322732</v>
+        <v>0.04560318251637314</v>
       </c>
       <c r="D12">
-        <v>0.06162821970760336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0576852183746012</v>
+      </c>
+      <c r="E12">
+        <v>0.003912344304922004</v>
+      </c>
+      <c r="F12">
+        <v>0.004276721618609635</v>
+      </c>
+      <c r="G12">
+        <v>-0.006763777395236858</v>
+      </c>
+      <c r="H12">
+        <v>-0.05812188840337319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01692820439188315</v>
+        <v>0.01910804787464523</v>
       </c>
       <c r="C13">
-        <v>0.0274276148145685</v>
+        <v>0.0383299132978647</v>
       </c>
       <c r="D13">
-        <v>0.1318392960360093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1488399987059295</v>
+      </c>
+      <c r="E13">
+        <v>0.05263049621373983</v>
+      </c>
+      <c r="F13">
+        <v>-0.02995797444417525</v>
+      </c>
+      <c r="G13">
+        <v>0.008385524218331277</v>
+      </c>
+      <c r="H13">
+        <v>-0.09131673510797771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01077879394955933</v>
+        <v>0.00732691086602565</v>
       </c>
       <c r="C14">
-        <v>0.02189041017210121</v>
+        <v>0.02519456988735284</v>
       </c>
       <c r="D14">
-        <v>0.08285679661106372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08534064713211248</v>
+      </c>
+      <c r="E14">
+        <v>0.03436560419970798</v>
+      </c>
+      <c r="F14">
+        <v>0.006698368665232798</v>
+      </c>
+      <c r="G14">
+        <v>0.005703075951421136</v>
+      </c>
+      <c r="H14">
+        <v>-0.09154204227321984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001314649361586823</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.009724571919684582</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03017997003600197</v>
+      </c>
+      <c r="E15">
+        <v>0.006480785515902048</v>
+      </c>
+      <c r="F15">
+        <v>0.00158140073923037</v>
+      </c>
+      <c r="G15">
+        <v>0.01058675346492969</v>
+      </c>
+      <c r="H15">
+        <v>-0.008606700625212363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03644044695624352</v>
+        <v>0.0296124336640088</v>
       </c>
       <c r="C16">
-        <v>0.03927610291237519</v>
+        <v>0.04337346640450063</v>
       </c>
       <c r="D16">
-        <v>0.0686844338568945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06157125381454101</v>
+      </c>
+      <c r="E16">
+        <v>0.008233943446377023</v>
+      </c>
+      <c r="F16">
+        <v>0.007226722064506611</v>
+      </c>
+      <c r="G16">
+        <v>0.0005491854741728615</v>
+      </c>
+      <c r="H16">
+        <v>-0.05380627508173042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008839264677097045</v>
+        <v>0.007657189731096823</v>
       </c>
       <c r="C19">
-        <v>0.02392764074151604</v>
+        <v>0.02160302751032192</v>
       </c>
       <c r="D19">
-        <v>0.1642338421049286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1275713275540291</v>
+      </c>
+      <c r="E19">
+        <v>0.0669040908677808</v>
+      </c>
+      <c r="F19">
+        <v>0.01336132480190404</v>
+      </c>
+      <c r="G19">
+        <v>0.02150737115429947</v>
+      </c>
+      <c r="H19">
+        <v>-0.0614196403508281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02106811912462777</v>
+        <v>0.01635458333565127</v>
       </c>
       <c r="C20">
-        <v>0.02090333568787281</v>
+        <v>0.03180860089058856</v>
       </c>
       <c r="D20">
-        <v>0.09015392986260112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09884937983866188</v>
+      </c>
+      <c r="E20">
+        <v>0.05344126653793045</v>
+      </c>
+      <c r="F20">
+        <v>0.001900494462244147</v>
+      </c>
+      <c r="G20">
+        <v>0.001304158982640853</v>
+      </c>
+      <c r="H20">
+        <v>-0.05093287033628312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01625858300265581</v>
+        <v>0.01446739845524066</v>
       </c>
       <c r="C21">
-        <v>0.02700489581525195</v>
+        <v>0.03711186021867059</v>
       </c>
       <c r="D21">
-        <v>0.1305370115277798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1420061816094574</v>
+      </c>
+      <c r="E21">
+        <v>0.09092181145707842</v>
+      </c>
+      <c r="F21">
+        <v>0.0003676962022150269</v>
+      </c>
+      <c r="G21">
+        <v>-0.02974162738659364</v>
+      </c>
+      <c r="H21">
+        <v>-0.1045941874173368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005305947099722214</v>
+        <v>0.005608205217426871</v>
       </c>
       <c r="C22">
-        <v>0.02887018304408998</v>
+        <v>0.03966418179614046</v>
       </c>
       <c r="D22">
-        <v>0.08093629396928224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1366185995551916</v>
+      </c>
+      <c r="E22">
+        <v>0.02418866146479964</v>
+      </c>
+      <c r="F22">
+        <v>-0.08856108683695656</v>
+      </c>
+      <c r="G22">
+        <v>0.08089333700077725</v>
+      </c>
+      <c r="H22">
+        <v>0.05041314604140448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005360235640128586</v>
+        <v>0.005709757666019618</v>
       </c>
       <c r="C23">
-        <v>0.02879425680302044</v>
+        <v>0.04011207004004089</v>
       </c>
       <c r="D23">
-        <v>0.08031497622536087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.136062479180434</v>
+      </c>
+      <c r="E23">
+        <v>0.02448043562980315</v>
+      </c>
+      <c r="F23">
+        <v>-0.08853175790393598</v>
+      </c>
+      <c r="G23">
+        <v>0.07998009019868396</v>
+      </c>
+      <c r="H23">
+        <v>0.05069051373137947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0356821342643989</v>
+        <v>0.03115071804660817</v>
       </c>
       <c r="C24">
-        <v>0.04549384279188968</v>
+        <v>0.05455563718726065</v>
       </c>
       <c r="D24">
-        <v>0.06846279207983802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06541090273582437</v>
+      </c>
+      <c r="E24">
+        <v>0.0124251586287004</v>
+      </c>
+      <c r="F24">
+        <v>0.004326703328275306</v>
+      </c>
+      <c r="G24">
+        <v>-0.01010252276389565</v>
+      </c>
+      <c r="H24">
+        <v>-0.06386291647825387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04144832648063436</v>
+        <v>0.03604207986182166</v>
       </c>
       <c r="C25">
-        <v>0.04801944396437575</v>
+        <v>0.05278063860175299</v>
       </c>
       <c r="D25">
-        <v>0.06864051794430415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06237568733745214</v>
+      </c>
+      <c r="E25">
+        <v>0.01247701095047211</v>
+      </c>
+      <c r="F25">
+        <v>-0.002243298838386475</v>
+      </c>
+      <c r="G25">
+        <v>-0.01431187596030801</v>
+      </c>
+      <c r="H25">
+        <v>-0.05294911870303799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02048581946292522</v>
+        <v>0.01835920225817752</v>
       </c>
       <c r="C26">
-        <v>0.006223458192825907</v>
+        <v>0.01761203137851589</v>
       </c>
       <c r="D26">
-        <v>0.0511711127448645</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06271265309712211</v>
+      </c>
+      <c r="E26">
+        <v>0.02640558524627355</v>
+      </c>
+      <c r="F26">
+        <v>-0.002708162544390931</v>
+      </c>
+      <c r="G26">
+        <v>0.003215698417698713</v>
+      </c>
+      <c r="H26">
+        <v>-0.05731131462403997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1378721917101912</v>
+        <v>0.1926309758234167</v>
       </c>
       <c r="C28">
-        <v>-0.2769968096432871</v>
+        <v>-0.2564494809444038</v>
       </c>
       <c r="D28">
-        <v>-0.03106364087950577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01264303900909088</v>
+      </c>
+      <c r="E28">
+        <v>0.07218787439336098</v>
+      </c>
+      <c r="F28">
+        <v>-0.008005792352223599</v>
+      </c>
+      <c r="G28">
+        <v>-0.07260812518502843</v>
+      </c>
+      <c r="H28">
+        <v>-0.008601291772683744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00597548686776969</v>
+        <v>0.006384810028765627</v>
       </c>
       <c r="C29">
-        <v>0.02025980978032844</v>
+        <v>0.02345174813100171</v>
       </c>
       <c r="D29">
-        <v>0.06890474395734664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0819904769877038</v>
+      </c>
+      <c r="E29">
+        <v>0.03308713509358446</v>
+      </c>
+      <c r="F29">
+        <v>-0.005490977593967578</v>
+      </c>
+      <c r="G29">
+        <v>-0.01252972916499026</v>
+      </c>
+      <c r="H29">
+        <v>-0.09485259131609529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04165460885669699</v>
+        <v>0.04264120849068195</v>
       </c>
       <c r="C30">
-        <v>0.03687848321029673</v>
+        <v>0.05984390963076906</v>
       </c>
       <c r="D30">
-        <v>0.165693953583966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1789810292169063</v>
+      </c>
+      <c r="E30">
+        <v>0.01913537727931095</v>
+      </c>
+      <c r="F30">
+        <v>-0.004508108222600456</v>
+      </c>
+      <c r="G30">
+        <v>0.04066551593263453</v>
+      </c>
+      <c r="H30">
+        <v>0.006619955053976435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06935475544695996</v>
+        <v>0.05707594659063507</v>
       </c>
       <c r="C31">
-        <v>0.04839403431938225</v>
+        <v>0.07053239983354348</v>
       </c>
       <c r="D31">
-        <v>0.06573913642518028</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05360861699056352</v>
+      </c>
+      <c r="E31">
+        <v>0.02292034228004866</v>
+      </c>
+      <c r="F31">
+        <v>-0.03657316702204697</v>
+      </c>
+      <c r="G31">
+        <v>-0.01667499802183388</v>
+      </c>
+      <c r="H31">
+        <v>-0.03412790009702418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004796915949399165</v>
+        <v>0.01219763269584781</v>
       </c>
       <c r="C32">
-        <v>0.006201666256702447</v>
+        <v>0.01825311691997503</v>
       </c>
       <c r="D32">
-        <v>0.06517974814650081</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1009797570290989</v>
+      </c>
+      <c r="E32">
+        <v>0.09480566687872295</v>
+      </c>
+      <c r="F32">
+        <v>-0.0161214933766795</v>
+      </c>
+      <c r="G32">
+        <v>-0.02731715042271387</v>
+      </c>
+      <c r="H32">
+        <v>-0.08049896027206031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02673064578047409</v>
+        <v>0.02454777233359701</v>
       </c>
       <c r="C33">
-        <v>0.02264775900200565</v>
+        <v>0.0419036178451628</v>
       </c>
       <c r="D33">
-        <v>0.1348185856433337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1329098303168953</v>
+      </c>
+      <c r="E33">
+        <v>0.04293597246578315</v>
+      </c>
+      <c r="F33">
+        <v>-0.01582164142418165</v>
+      </c>
+      <c r="G33">
+        <v>0.001975378173277603</v>
+      </c>
+      <c r="H33">
+        <v>-0.05934957875030096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03408017384050297</v>
+        <v>0.02778998497797894</v>
       </c>
       <c r="C34">
-        <v>0.06073166398406606</v>
+        <v>0.06146695559413115</v>
       </c>
       <c r="D34">
-        <v>0.06994087635181011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0590008265563032</v>
+      </c>
+      <c r="E34">
+        <v>-0.004714205324184237</v>
+      </c>
+      <c r="F34">
+        <v>0.009523861748352692</v>
+      </c>
+      <c r="G34">
+        <v>-0.01045686379934173</v>
+      </c>
+      <c r="H34">
+        <v>-0.07367065859758873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005244704952361893</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0006624494603860148</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.003922779022358873</v>
+      </c>
+      <c r="E35">
+        <v>0.0001773511216754222</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003383551032864672</v>
+      </c>
+      <c r="G35">
+        <v>0.001138203884798477</v>
+      </c>
+      <c r="H35">
+        <v>-0.002374913222687265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02102989261189197</v>
+        <v>0.01892758124486852</v>
       </c>
       <c r="C36">
-        <v>0.00185373714845472</v>
+        <v>0.01511755261109635</v>
       </c>
       <c r="D36">
-        <v>0.07678340400945206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07970476432676253</v>
+      </c>
+      <c r="E36">
+        <v>0.03378161538479892</v>
+      </c>
+      <c r="F36">
+        <v>0.001239368324522238</v>
+      </c>
+      <c r="G36">
+        <v>-0.01012532151586338</v>
+      </c>
+      <c r="H36">
+        <v>-0.04724097066136481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02600732300083112</v>
+        <v>0.02098675870786192</v>
       </c>
       <c r="C38">
-        <v>0.01863822331048536</v>
+        <v>0.02185152856682619</v>
       </c>
       <c r="D38">
-        <v>0.0505274934602892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05589407498864723</v>
+      </c>
+      <c r="E38">
+        <v>0.03857510714377211</v>
+      </c>
+      <c r="F38">
+        <v>0.004965017006716262</v>
+      </c>
+      <c r="G38">
+        <v>0.03680357667294767</v>
+      </c>
+      <c r="H38">
+        <v>-0.03939896500694227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04182352016421155</v>
+        <v>0.03701493044982782</v>
       </c>
       <c r="C39">
-        <v>0.05245762474057811</v>
+        <v>0.06401978308205936</v>
       </c>
       <c r="D39">
-        <v>0.09331648672909203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1057338155133223</v>
+      </c>
+      <c r="E39">
+        <v>0.008382250094267787</v>
+      </c>
+      <c r="F39">
+        <v>0.02683335456439625</v>
+      </c>
+      <c r="G39">
+        <v>0.004750814840455478</v>
+      </c>
+      <c r="H39">
+        <v>-0.07516817211133235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01759502332181554</v>
+        <v>0.01424489577260199</v>
       </c>
       <c r="C40">
-        <v>0.04416031510031344</v>
+        <v>0.03702657925814787</v>
       </c>
       <c r="D40">
-        <v>0.07611671367925338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08493625158302709</v>
+      </c>
+      <c r="E40">
+        <v>0.0652651106939849</v>
+      </c>
+      <c r="F40">
+        <v>-0.06278766495021047</v>
+      </c>
+      <c r="G40">
+        <v>0.04650936940149703</v>
+      </c>
+      <c r="H40">
+        <v>-0.163675863201448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02446701980283337</v>
+        <v>0.02274203600750603</v>
       </c>
       <c r="C41">
-        <v>-0.008821795488774336</v>
+        <v>0.007880476652604586</v>
       </c>
       <c r="D41">
-        <v>0.06873507966555127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05589085021159984</v>
+      </c>
+      <c r="E41">
+        <v>0.05140913836894932</v>
+      </c>
+      <c r="F41">
+        <v>-0.004114273796542262</v>
+      </c>
+      <c r="G41">
+        <v>0.007695175832231072</v>
+      </c>
+      <c r="H41">
+        <v>-0.04720010319414202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03339807195065565</v>
+        <v>0.02468921410120062</v>
       </c>
       <c r="C43">
-        <v>0.002533884850746196</v>
+        <v>0.01868175274460999</v>
       </c>
       <c r="D43">
-        <v>0.107421274805561</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08649032223850378</v>
+      </c>
+      <c r="E43">
+        <v>0.03259381689365708</v>
+      </c>
+      <c r="F43">
+        <v>-0.005352557925809937</v>
+      </c>
+      <c r="G43">
+        <v>0.009204278066069368</v>
+      </c>
+      <c r="H43">
+        <v>-0.06486722209521244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01272651620384939</v>
+        <v>0.01680383770011953</v>
       </c>
       <c r="C44">
-        <v>0.03983874333944518</v>
+        <v>0.04106731286163506</v>
       </c>
       <c r="D44">
-        <v>0.08713732687891591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09942554919559725</v>
+      </c>
+      <c r="E44">
+        <v>0.07263684354324365</v>
+      </c>
+      <c r="F44">
+        <v>-0.006964025933880736</v>
+      </c>
+      <c r="G44">
+        <v>-0.003464152829074182</v>
+      </c>
+      <c r="H44">
+        <v>-0.07049318880804234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02036138439927196</v>
+        <v>0.01666411846548535</v>
       </c>
       <c r="C46">
-        <v>0.01998202248823979</v>
+        <v>0.02918878738000592</v>
       </c>
       <c r="D46">
-        <v>0.07991311066590771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09072808619424975</v>
+      </c>
+      <c r="E46">
+        <v>0.03876968748514095</v>
+      </c>
+      <c r="F46">
+        <v>0.01568927364342416</v>
+      </c>
+      <c r="G46">
+        <v>-0.02122562593633962</v>
+      </c>
+      <c r="H46">
+        <v>-0.09775855725252709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09724234363738067</v>
+        <v>0.08588246028679099</v>
       </c>
       <c r="C47">
-        <v>0.06671510649263336</v>
+        <v>0.08874565096036731</v>
       </c>
       <c r="D47">
-        <v>0.04255551637936961</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03336664440654206</v>
+      </c>
+      <c r="E47">
+        <v>0.03467508533170819</v>
+      </c>
+      <c r="F47">
+        <v>-0.02392479736532062</v>
+      </c>
+      <c r="G47">
+        <v>-0.05250736088248638</v>
+      </c>
+      <c r="H47">
+        <v>-0.02078750535097453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0163619146424722</v>
+        <v>0.01708554541696674</v>
       </c>
       <c r="C48">
-        <v>0.01073543740820525</v>
+        <v>0.01997873328738985</v>
       </c>
       <c r="D48">
-        <v>0.06805650198426202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07630943789190964</v>
+      </c>
+      <c r="E48">
+        <v>0.05221845646421612</v>
+      </c>
+      <c r="F48">
+        <v>0.006045711901801243</v>
+      </c>
+      <c r="G48">
+        <v>-0.006945018547142089</v>
+      </c>
+      <c r="H48">
+        <v>-0.05340456188178842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07749919745812568</v>
+        <v>0.05950075256536409</v>
       </c>
       <c r="C50">
-        <v>0.06323715857444615</v>
+        <v>0.06939588186165487</v>
       </c>
       <c r="D50">
-        <v>0.06295881983340712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05579355869609196</v>
+      </c>
+      <c r="E50">
+        <v>0.03771177963312397</v>
+      </c>
+      <c r="F50">
+        <v>-0.04431558248091184</v>
+      </c>
+      <c r="G50">
+        <v>0.01271548743140278</v>
+      </c>
+      <c r="H50">
+        <v>-0.04203313363398217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008524879078695733</v>
+        <v>0.006897294850199616</v>
       </c>
       <c r="C51">
-        <v>0.01401573813820703</v>
+        <v>0.01642877589265452</v>
       </c>
       <c r="D51">
-        <v>0.08005213511956927</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08909103546906535</v>
+      </c>
+      <c r="E51">
+        <v>0.02416187687657158</v>
+      </c>
+      <c r="F51">
+        <v>-0.001099528636766742</v>
+      </c>
+      <c r="G51">
+        <v>0.00966036514110998</v>
+      </c>
+      <c r="H51">
+        <v>-0.07241442250626731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07589470073088296</v>
+        <v>0.08693259107946523</v>
       </c>
       <c r="C53">
-        <v>0.08892057803022267</v>
+        <v>0.1006125211774287</v>
       </c>
       <c r="D53">
-        <v>0.02028121139218148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.009356610307925084</v>
+      </c>
+      <c r="E53">
+        <v>0.1037063421458745</v>
+      </c>
+      <c r="F53">
+        <v>-0.0489918335399968</v>
+      </c>
+      <c r="G53">
+        <v>-0.0876477866555805</v>
+      </c>
+      <c r="H53">
+        <v>0.007931460662362352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03456105686853116</v>
+        <v>0.02673861717862253</v>
       </c>
       <c r="C54">
-        <v>0.03280694803223136</v>
+        <v>0.03560345348740886</v>
       </c>
       <c r="D54">
-        <v>0.0892768338791001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08825468960245229</v>
+      </c>
+      <c r="E54">
+        <v>0.04299205064061939</v>
+      </c>
+      <c r="F54">
+        <v>0.01424449919285299</v>
+      </c>
+      <c r="G54">
+        <v>0.01180670334384724</v>
+      </c>
+      <c r="H54">
+        <v>-0.1082841567164618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0888696122474355</v>
+        <v>0.08588652999672705</v>
       </c>
       <c r="C55">
-        <v>0.06433030176886338</v>
+        <v>0.08022173757726879</v>
       </c>
       <c r="D55">
-        <v>-0.001839632421232135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009443800320055673</v>
+      </c>
+      <c r="E55">
+        <v>0.0585833654059385</v>
+      </c>
+      <c r="F55">
+        <v>-0.04451838902623041</v>
+      </c>
+      <c r="G55">
+        <v>-0.04316330840069058</v>
+      </c>
+      <c r="H55">
+        <v>0.01497708804064808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1365662690593504</v>
+        <v>0.1315382210022779</v>
       </c>
       <c r="C56">
-        <v>0.1009216363687725</v>
+        <v>0.1239340377206182</v>
       </c>
       <c r="D56">
-        <v>0.009938313785665776</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.006436454200733547</v>
+      </c>
+      <c r="E56">
+        <v>0.06380131351779275</v>
+      </c>
+      <c r="F56">
+        <v>-0.03290239966888331</v>
+      </c>
+      <c r="G56">
+        <v>-0.05533528216643098</v>
+      </c>
+      <c r="H56">
+        <v>0.002250593901238057</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.02612341586886709</v>
+        <v>0.03131676521746049</v>
       </c>
       <c r="C58">
-        <v>-0.02624214659670797</v>
+        <v>0.01835244869704193</v>
       </c>
       <c r="D58">
-        <v>0.3696809891885305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3792140223016908</v>
+      </c>
+      <c r="E58">
+        <v>0.1834082777171511</v>
+      </c>
+      <c r="F58">
+        <v>-0.150691485285181</v>
+      </c>
+      <c r="G58">
+        <v>0.3494218043408719</v>
+      </c>
+      <c r="H58">
+        <v>0.4010545260435325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1344976591607114</v>
+        <v>0.17310067444458</v>
       </c>
       <c r="C59">
-        <v>-0.1939022987907188</v>
+        <v>-0.1726581150789532</v>
       </c>
       <c r="D59">
-        <v>0.02425287297468066</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04966299286955542</v>
+      </c>
+      <c r="E59">
+        <v>0.02017831770377582</v>
+      </c>
+      <c r="F59">
+        <v>0.03970613759041255</v>
+      </c>
+      <c r="G59">
+        <v>0.002186665638829848</v>
+      </c>
+      <c r="H59">
+        <v>0.02425931606836073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2536298524271123</v>
+        <v>0.2299444330479606</v>
       </c>
       <c r="C60">
-        <v>0.06101788502584294</v>
+        <v>0.09883640147216974</v>
       </c>
       <c r="D60">
-        <v>0.1566119087119792</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1095822385609532</v>
+      </c>
+      <c r="E60">
+        <v>-0.3688976756073349</v>
+      </c>
+      <c r="F60">
+        <v>-0.01490245122458217</v>
+      </c>
+      <c r="G60">
+        <v>-0.03895889433731872</v>
+      </c>
+      <c r="H60">
+        <v>0.09549783893934879</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04669764535364514</v>
+        <v>0.04121367649442018</v>
       </c>
       <c r="C61">
-        <v>0.05226557840293439</v>
+        <v>0.05978297975920169</v>
       </c>
       <c r="D61">
-        <v>0.1009997827240618</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09342976876524413</v>
+      </c>
+      <c r="E61">
+        <v>0.004773838350135559</v>
+      </c>
+      <c r="F61">
+        <v>0.01635665410653894</v>
+      </c>
+      <c r="G61">
+        <v>-0.01599535747344046</v>
+      </c>
+      <c r="H61">
+        <v>-0.0758726099525187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01536131000310829</v>
+        <v>0.01455147846697477</v>
       </c>
       <c r="C63">
-        <v>0.02006790236463517</v>
+        <v>0.03260785031665452</v>
       </c>
       <c r="D63">
-        <v>0.06026589752789972</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06902945755226381</v>
+      </c>
+      <c r="E63">
+        <v>0.03003014727650994</v>
+      </c>
+      <c r="F63">
+        <v>-0.01853689115389597</v>
+      </c>
+      <c r="G63">
+        <v>0.004318413679231363</v>
+      </c>
+      <c r="H63">
+        <v>-0.04324875324880337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05927167256525172</v>
+        <v>0.05486988829676603</v>
       </c>
       <c r="C64">
-        <v>0.06087377775969999</v>
+        <v>0.07961522234654501</v>
       </c>
       <c r="D64">
-        <v>0.05667905623991337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05260913987122778</v>
+      </c>
+      <c r="E64">
+        <v>0.02891106841236636</v>
+      </c>
+      <c r="F64">
+        <v>0.01602868106172409</v>
+      </c>
+      <c r="G64">
+        <v>-0.05061321196436003</v>
+      </c>
+      <c r="H64">
+        <v>-0.04162378014774949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05544792552657234</v>
+        <v>0.04876189025416376</v>
       </c>
       <c r="C65">
-        <v>0.003494669517584146</v>
+        <v>0.02506228073027712</v>
       </c>
       <c r="D65">
-        <v>0.1085838068579858</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1150417450831646</v>
+      </c>
+      <c r="E65">
+        <v>-0.0007933097703995785</v>
+      </c>
+      <c r="F65">
+        <v>-0.01468848859866999</v>
+      </c>
+      <c r="G65">
+        <v>0.03448029029749235</v>
+      </c>
+      <c r="H65">
+        <v>0.02440607651691179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04446466578125235</v>
+        <v>0.04149094718824667</v>
       </c>
       <c r="C66">
-        <v>0.05513098995687689</v>
+        <v>0.07242800285304528</v>
       </c>
       <c r="D66">
-        <v>0.1136217442891368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1309538418898543</v>
+      </c>
+      <c r="E66">
+        <v>0.01394128441807558</v>
+      </c>
+      <c r="F66">
+        <v>0.01062945339809892</v>
+      </c>
+      <c r="G66">
+        <v>0.01321134835131475</v>
+      </c>
+      <c r="H66">
+        <v>-0.05406323906806056</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0447054318885715</v>
+        <v>0.03759275191547356</v>
       </c>
       <c r="C67">
-        <v>0.02615055754299891</v>
+        <v>0.02791725801656948</v>
       </c>
       <c r="D67">
-        <v>0.02195610230994091</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01795335317507685</v>
+      </c>
+      <c r="E67">
+        <v>0.01816670255179931</v>
+      </c>
+      <c r="F67">
+        <v>0.0008472711541303953</v>
+      </c>
+      <c r="G67">
+        <v>0.03082087901215182</v>
+      </c>
+      <c r="H67">
+        <v>-0.04016860489806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1605379840420645</v>
+        <v>0.1919936152896701</v>
       </c>
       <c r="C68">
-        <v>-0.2499095129539893</v>
+        <v>-0.205099767556811</v>
       </c>
       <c r="D68">
-        <v>-0.02154813853360744</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.009976522414149383</v>
+      </c>
+      <c r="E68">
+        <v>0.04958422418291646</v>
+      </c>
+      <c r="F68">
+        <v>-0.0323480080855044</v>
+      </c>
+      <c r="G68">
+        <v>0.0124215606848611</v>
+      </c>
+      <c r="H68">
+        <v>0.006118608102422973</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08665553820630771</v>
+        <v>0.07747222951946893</v>
       </c>
       <c r="C69">
-        <v>0.08097411695066739</v>
+        <v>0.09762187024317667</v>
       </c>
       <c r="D69">
-        <v>0.05506610623760076</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0455210504901397</v>
+      </c>
+      <c r="E69">
+        <v>0.02610649104264845</v>
+      </c>
+      <c r="F69">
+        <v>-0.004151245653162419</v>
+      </c>
+      <c r="G69">
+        <v>-0.03532387177553308</v>
+      </c>
+      <c r="H69">
+        <v>-0.03015061488054011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.136114845864721</v>
+        <v>0.1770483227988184</v>
       </c>
       <c r="C71">
-        <v>-0.2464382488077067</v>
+        <v>-0.2161791512892882</v>
       </c>
       <c r="D71">
-        <v>0.01524190059756179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03383368017584706</v>
+      </c>
+      <c r="E71">
+        <v>0.052770282642912</v>
+      </c>
+      <c r="F71">
+        <v>-0.03733763396246455</v>
+      </c>
+      <c r="G71">
+        <v>-0.02950135985958241</v>
+      </c>
+      <c r="H71">
+        <v>-0.02571841782599567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09894159134608857</v>
+        <v>0.09954534275993825</v>
       </c>
       <c r="C72">
-        <v>0.03880626954378445</v>
+        <v>0.06736894605858207</v>
       </c>
       <c r="D72">
-        <v>0.0920261198381655</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09644145913766121</v>
+      </c>
+      <c r="E72">
+        <v>-0.0369464488036475</v>
+      </c>
+      <c r="F72">
+        <v>-0.03489058054674943</v>
+      </c>
+      <c r="G72">
+        <v>-0.02698667149420808</v>
+      </c>
+      <c r="H72">
+        <v>-0.02236107200896366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2934371911079596</v>
+        <v>0.2491671305874493</v>
       </c>
       <c r="C73">
-        <v>0.01400494759031295</v>
+        <v>0.08289157955058273</v>
       </c>
       <c r="D73">
-        <v>0.2590137533570992</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1740336508699009</v>
+      </c>
+      <c r="E73">
+        <v>-0.6701196293525914</v>
+      </c>
+      <c r="F73">
+        <v>-0.001432282282320009</v>
+      </c>
+      <c r="G73">
+        <v>0.007664449216946054</v>
+      </c>
+      <c r="H73">
+        <v>0.1419166858795557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1019505961040761</v>
+        <v>0.0998961741109383</v>
       </c>
       <c r="C74">
-        <v>0.07098510272620337</v>
+        <v>0.08997248797889459</v>
       </c>
       <c r="D74">
-        <v>0.01887085583253885</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.002802960201141594</v>
+      </c>
+      <c r="E74">
+        <v>0.08153464290423793</v>
+      </c>
+      <c r="F74">
+        <v>-0.06118577093611766</v>
+      </c>
+      <c r="G74">
+        <v>-0.06009304278010189</v>
+      </c>
+      <c r="H74">
+        <v>0.0373574344236173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2397292089040367</v>
+        <v>0.2309925213936512</v>
       </c>
       <c r="C75">
-        <v>0.1281503737321485</v>
+        <v>0.1656245227237018</v>
       </c>
       <c r="D75">
-        <v>-0.04691182941826656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.08929855304816588</v>
+      </c>
+      <c r="E75">
+        <v>0.1062444164351497</v>
+      </c>
+      <c r="F75">
+        <v>-0.01037204448933611</v>
+      </c>
+      <c r="G75">
+        <v>-0.06738068105483244</v>
+      </c>
+      <c r="H75">
+        <v>0.09577366127991535</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1305771500895031</v>
+        <v>0.1277450528966672</v>
       </c>
       <c r="C76">
-        <v>0.0871939561164234</v>
+        <v>0.1133731454782084</v>
       </c>
       <c r="D76">
-        <v>0.003321087001291976</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0130882296039351</v>
+      </c>
+      <c r="E76">
+        <v>0.1143343736070901</v>
+      </c>
+      <c r="F76">
+        <v>-0.03000793957841855</v>
+      </c>
+      <c r="G76">
+        <v>-0.05545499014114876</v>
+      </c>
+      <c r="H76">
+        <v>0.002438219137237417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06153095165437909</v>
+        <v>0.06139914310767941</v>
       </c>
       <c r="C77">
-        <v>0.06132357806477836</v>
+        <v>0.06873673395516661</v>
       </c>
       <c r="D77">
-        <v>0.05282495179746473</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1247385671619816</v>
+      </c>
+      <c r="E77">
+        <v>0.2107951091700696</v>
+      </c>
+      <c r="F77">
+        <v>0.2317618176556683</v>
+      </c>
+      <c r="G77">
+        <v>0.1289296632944674</v>
+      </c>
+      <c r="H77">
+        <v>0.1744447465623467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03979298741206311</v>
+        <v>0.04136372316713276</v>
       </c>
       <c r="C78">
-        <v>0.05071585552813705</v>
+        <v>0.06279717647865694</v>
       </c>
       <c r="D78">
-        <v>0.112130714525335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1272316920657987</v>
+      </c>
+      <c r="E78">
+        <v>0.01659991677636923</v>
+      </c>
+      <c r="F78">
+        <v>-0.01143716487009865</v>
+      </c>
+      <c r="G78">
+        <v>-0.02189624900800801</v>
+      </c>
+      <c r="H78">
+        <v>-0.02869680414691611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0002724659047892026</v>
+        <v>0.04364182294614897</v>
       </c>
       <c r="C79">
-        <v>0.0001691486121516141</v>
+        <v>0.08638566317480374</v>
       </c>
       <c r="D79">
-        <v>0.01846416253000213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02451316876040042</v>
+      </c>
+      <c r="E79">
+        <v>0.1881859660162416</v>
+      </c>
+      <c r="F79">
+        <v>-0.1313147087262236</v>
+      </c>
+      <c r="G79">
+        <v>-0.6098005073007895</v>
+      </c>
+      <c r="H79">
+        <v>0.5056254951014566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0296237223923155</v>
+        <v>0.02443471674212441</v>
       </c>
       <c r="C80">
-        <v>0.02700599752041188</v>
+        <v>0.04205374107982351</v>
       </c>
       <c r="D80">
-        <v>0.0252017554431158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03402177102196609</v>
+      </c>
+      <c r="E80">
+        <v>0.02522476441666897</v>
+      </c>
+      <c r="F80">
+        <v>0.03243679084356228</v>
+      </c>
+      <c r="G80">
+        <v>0.05520459448864205</v>
+      </c>
+      <c r="H80">
+        <v>-0.01568038175471851</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1445735824052947</v>
+        <v>0.130513465257044</v>
       </c>
       <c r="C81">
-        <v>0.09224914340604153</v>
+        <v>0.1172230897077038</v>
       </c>
       <c r="D81">
-        <v>-0.04523504811602368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06292358112714931</v>
+      </c>
+      <c r="E81">
+        <v>0.1216978044366256</v>
+      </c>
+      <c r="F81">
+        <v>-0.0229012788548544</v>
+      </c>
+      <c r="G81">
+        <v>-0.04712315375155961</v>
+      </c>
+      <c r="H81">
+        <v>0.02199251619231845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3033254236569267</v>
+        <v>0.2539540106755252</v>
       </c>
       <c r="C82">
-        <v>0.2601458053325491</v>
+        <v>0.251647492247556</v>
       </c>
       <c r="D82">
-        <v>-0.2258835383324254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2217706951245276</v>
+      </c>
+      <c r="E82">
+        <v>-0.006539208570418348</v>
+      </c>
+      <c r="F82">
+        <v>-0.04316591236768981</v>
+      </c>
+      <c r="G82">
+        <v>-0.2067693947599054</v>
+      </c>
+      <c r="H82">
+        <v>-0.4844938840009095</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02872677572311769</v>
+        <v>0.02239686270169816</v>
       </c>
       <c r="C83">
-        <v>0.04625913083952706</v>
+        <v>0.05250903471379866</v>
       </c>
       <c r="D83">
-        <v>0.0465629552568945</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05058591882386935</v>
+      </c>
+      <c r="E83">
+        <v>0.01110011405374493</v>
+      </c>
+      <c r="F83">
+        <v>0.02119211607635491</v>
+      </c>
+      <c r="G83">
+        <v>0.004901041910054012</v>
+      </c>
+      <c r="H83">
+        <v>-0.02970355500858586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002885687407859366</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00488784804178506</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01659444455038768</v>
+      </c>
+      <c r="E84">
+        <v>0.01507274117874831</v>
+      </c>
+      <c r="F84">
+        <v>-0.007618276744906617</v>
+      </c>
+      <c r="G84">
+        <v>0.01133153293698823</v>
+      </c>
+      <c r="H84">
+        <v>-0.0003023410690606267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1814758884065829</v>
+        <v>0.1603062654283081</v>
       </c>
       <c r="C85">
-        <v>0.09509362859274047</v>
+        <v>0.1342887856905092</v>
       </c>
       <c r="D85">
-        <v>-0.02773994150053309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06408749731997401</v>
+      </c>
+      <c r="E85">
+        <v>0.04893656311896009</v>
+      </c>
+      <c r="F85">
+        <v>-0.04365319426651323</v>
+      </c>
+      <c r="G85">
+        <v>-0.08315412186808406</v>
+      </c>
+      <c r="H85">
+        <v>0.1048990071335957</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0145000757562298</v>
+        <v>0.01883340159701865</v>
       </c>
       <c r="C86">
-        <v>0.02267673636074108</v>
+        <v>0.02270994215175923</v>
       </c>
       <c r="D86">
-        <v>0.1368276344908788</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1261085443415907</v>
+      </c>
+      <c r="E86">
+        <v>0.01218733550482365</v>
+      </c>
+      <c r="F86">
+        <v>0.00836040377077403</v>
+      </c>
+      <c r="G86">
+        <v>-0.01847016293774162</v>
+      </c>
+      <c r="H86">
+        <v>-0.07130085338211152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02729110924668674</v>
+        <v>0.0332510584222775</v>
       </c>
       <c r="C87">
-        <v>0.0008033143664399579</v>
+        <v>0.02515411019629583</v>
       </c>
       <c r="D87">
-        <v>0.09552134924148314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1327834123266064</v>
+      </c>
+      <c r="E87">
+        <v>0.08282501999575846</v>
+      </c>
+      <c r="F87">
+        <v>0.008726779497043103</v>
+      </c>
+      <c r="G87">
+        <v>0.0169327220526117</v>
+      </c>
+      <c r="H87">
+        <v>-0.02636631509927257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07878472322969604</v>
+        <v>0.07036323743042332</v>
       </c>
       <c r="C88">
-        <v>0.0408292894809708</v>
+        <v>0.05694564603459603</v>
       </c>
       <c r="D88">
-        <v>0.03474698613508146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01832603650006815</v>
+      </c>
+      <c r="E88">
+        <v>0.02009060469148749</v>
+      </c>
+      <c r="F88">
+        <v>-0.005172176822109158</v>
+      </c>
+      <c r="G88">
+        <v>-0.00852398256180021</v>
+      </c>
+      <c r="H88">
+        <v>-0.03835820683259134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1977375892300806</v>
+        <v>0.2717974822369821</v>
       </c>
       <c r="C89">
-        <v>-0.377388926759565</v>
+        <v>-0.3567524124129238</v>
       </c>
       <c r="D89">
-        <v>-0.02927403018985559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001115663843275858</v>
+      </c>
+      <c r="E89">
+        <v>0.0506241429860838</v>
+      </c>
+      <c r="F89">
+        <v>0.05162332079249417</v>
+      </c>
+      <c r="G89">
+        <v>-0.04352832553238969</v>
+      </c>
+      <c r="H89">
+        <v>-0.0579163531912467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.198291019462303</v>
+        <v>0.2366047760173884</v>
       </c>
       <c r="C90">
-        <v>-0.3013413340367662</v>
+        <v>-0.260206327989435</v>
       </c>
       <c r="D90">
-        <v>-0.03633795242972435</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01255881594243476</v>
+      </c>
+      <c r="E90">
+        <v>0.04586855881462494</v>
+      </c>
+      <c r="F90">
+        <v>-0.01257651623520162</v>
+      </c>
+      <c r="G90">
+        <v>0.04361143208910109</v>
+      </c>
+      <c r="H90">
+        <v>-0.04955022908061425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1775584491616917</v>
+        <v>0.1626094632902389</v>
       </c>
       <c r="C91">
-        <v>0.1282010130481935</v>
+        <v>0.1556458678154734</v>
       </c>
       <c r="D91">
-        <v>-0.06642098419124719</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08595602755170831</v>
+      </c>
+      <c r="E91">
+        <v>0.1063282236240864</v>
+      </c>
+      <c r="F91">
+        <v>-0.03339998123273948</v>
+      </c>
+      <c r="G91">
+        <v>-0.08560998937161006</v>
+      </c>
+      <c r="H91">
+        <v>0.09761038792308652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1629580093668969</v>
+        <v>0.2156397213713464</v>
       </c>
       <c r="C92">
-        <v>-0.2912707761073093</v>
+        <v>-0.2747086138817825</v>
       </c>
       <c r="D92">
-        <v>0.007172132760042347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0267990486234639</v>
+      </c>
+      <c r="E92">
+        <v>0.09089699391435212</v>
+      </c>
+      <c r="F92">
+        <v>0.01176166723018044</v>
+      </c>
+      <c r="G92">
+        <v>0.004843419714704304</v>
+      </c>
+      <c r="H92">
+        <v>-0.04342120827662307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2318990422665304</v>
+        <v>0.2637534233173633</v>
       </c>
       <c r="C93">
-        <v>-0.3211939253719566</v>
+        <v>-0.2730287226790605</v>
       </c>
       <c r="D93">
-        <v>-0.005323249851006272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002818578765115058</v>
+      </c>
+      <c r="E93">
+        <v>0.016900851199999</v>
+      </c>
+      <c r="F93">
+        <v>-0.02403743130103119</v>
+      </c>
+      <c r="G93">
+        <v>0.001400506253820257</v>
+      </c>
+      <c r="H93">
+        <v>0.006971318226427924</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4015295852993123</v>
+        <v>0.3435694148577854</v>
       </c>
       <c r="C94">
-        <v>0.2221641027784448</v>
+        <v>0.2586465684757431</v>
       </c>
       <c r="D94">
-        <v>-0.4709558710488983</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4426097345882108</v>
+      </c>
+      <c r="E94">
+        <v>0.08718942036943098</v>
+      </c>
+      <c r="F94">
+        <v>0.02701538270854931</v>
+      </c>
+      <c r="G94">
+        <v>0.5731617637055729</v>
+      </c>
+      <c r="H94">
+        <v>0.1405144130306643</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0777934820792941</v>
+        <v>0.06824467480406579</v>
       </c>
       <c r="C95">
-        <v>0.07227831081802534</v>
+        <v>0.06443555256091041</v>
       </c>
       <c r="D95">
-        <v>0.1194220761909348</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08454100251475279</v>
+      </c>
+      <c r="E95">
+        <v>0.03011009339014126</v>
+      </c>
+      <c r="F95">
+        <v>0.9187849867764526</v>
+      </c>
+      <c r="G95">
+        <v>-0.09391974693036795</v>
+      </c>
+      <c r="H95">
+        <v>0.07930846911055921</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1777430912263595</v>
+        <v>0.163858751473745</v>
       </c>
       <c r="C98">
-        <v>0.02032848048412277</v>
+        <v>0.05991023009658681</v>
       </c>
       <c r="D98">
-        <v>0.1484818587580946</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.126961047216172</v>
+      </c>
+      <c r="E98">
+        <v>-0.3142035853459155</v>
+      </c>
+      <c r="F98">
+        <v>-0.04248144830857832</v>
+      </c>
+      <c r="G98">
+        <v>-0.04819728076378266</v>
+      </c>
+      <c r="H98">
+        <v>0.04257824768872612</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005813912319890378</v>
+        <v>0.006564114617297515</v>
       </c>
       <c r="C101">
-        <v>0.01962740903566183</v>
+        <v>0.02245734975101128</v>
       </c>
       <c r="D101">
-        <v>0.06856843690991896</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08192408980051193</v>
+      </c>
+      <c r="E101">
+        <v>0.03423095679287899</v>
+      </c>
+      <c r="F101">
+        <v>-0.004615658953873229</v>
+      </c>
+      <c r="G101">
+        <v>-0.01319418340519592</v>
+      </c>
+      <c r="H101">
+        <v>-0.09500983087942601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1237037658537253</v>
+        <v>0.1091360678615148</v>
       </c>
       <c r="C102">
-        <v>0.1133790792181303</v>
+        <v>0.1197613312967552</v>
       </c>
       <c r="D102">
-        <v>-0.04184520359079452</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05399923820299055</v>
+      </c>
+      <c r="E102">
+        <v>0.03621969058721099</v>
+      </c>
+      <c r="F102">
+        <v>0.01917096339270927</v>
+      </c>
+      <c r="G102">
+        <v>-0.0511351713483918</v>
+      </c>
+      <c r="H102">
+        <v>-0.03225925186218136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
